--- a/biology/Neurosciences/Soar_(architecture_cognitive)/Soar_(architecture_cognitive).xlsx
+++ b/biology/Neurosciences/Soar_(architecture_cognitive)/Soar_(architecture_cognitive).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Soar (à l’origine SOAR) est une architecture cognitive symbolique, créée par John Laird (en), Allen Newell, et Paul Rosenbloom à l’Université Carnegie-Mellon. C’est à la fois un point de vue sur la cognition et une implémentation de ce point de vue au travers d’une architecture de programmation pour l’Intelligence artificielle (IA). Depuis ses débuts en 1983 et sa présentation dans un article en 1987, Soar a été largement utilisé par les chercheurs en IA pour modéliser différents aspects du comportement humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOAR signifiait à l’origine State, Operator And Result (État, Opérateur Et Résultat) [1], ce qui reflétait la représentation de la résolution de problèmes comme l’application d’un opérateur à un état pour obtenir un résultat. Selon le projet FAQ, la communauté de développement de Soar ne considère plus Soar comme un acronyme, et ce terme n’est donc plus écrit en majuscules, bien que cela soit toujours représentatif du noyau de l’implémentation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOAR signifiait à l’origine State, Operator And Result (État, Opérateur Et Résultat) , ce qui reflétait la représentation de la résolution de problèmes comme l’application d’un opérateur à un état pour obtenir un résultat. Selon le projet FAQ, la communauté de développement de Soar ne considère plus Soar comme un acronyme, et ce terme n’est donc plus écrit en majuscules, bien que cela soit toujours représentatif du noyau de l’implémentation.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’objectif principal du projet Soar est de permettre de gérer tout l’éventail des capacités d’un agent intelligent, de la routine la plus banale jusqu’aux problèmes non déterminés les plus difficiles. Pour y parvenir, selon la conception qui sous-tend Soar, il doit être capable de créer des représentations de la connaissance et d’utiliser des formes appropriées de la connaissance (procédurale, déclarative, épisodique, et éventuellement iconique). Soar accéderait alors à un ensemble de mécanismes de l’esprit. Une autre idée sous-jacente à l’architecture Soar est qu’un système symbolique est nécessaire et suffisant pour l’intelligence générale (discussion dite Neats vs. scruffies (en)). Cette hypothèse est connue sous le nom de « système de symboles physiques » (physical symbol system (en)), ou « système formel ». La conception de la cognition qui sous-tend Soar est liée à la théorie psychologique présentée dans l’ouvrage de Allen Newell, Théories unifiées de la cognition.
 Bien que le but de Soar soit d’aboutir à une intelligence générale, personne n’affirme que ce but ait déjà été atteint. Les partisans de Soar reconnaissent qu’il lui manque encore certains aspects importants de l’intelligence. Il existe actuellement des projets en cours pour lui ajouter des capacités de mémorisation épisodique et sémantique, ainsi qu’une base émotionnelle. On peut aussi mentionner, parmi les facultés qui lui manquent encore, celle de créer de lui-même de nouvelles représentations, par exemple au moyen de regroupements hiérarchiques.
@@ -576,7 +592,9 @@
           <t>Autres modèles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le modèle ACT, notamment ACT-R constitue une autre architecture cognitive due à John Robert Anderson, qui opère selon des principes similaires. On peut citer d’autres architectures cognitives comme CHREST, CLARION (en), CARUS, AlifeE, DUAL et Psi.
 </t>
